--- a/biology/Zoologie/Claea_dabryi/Claea_dabryi.xlsx
+++ b/biology/Zoologie/Claea_dabryi/Claea_dabryi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claea
-Claea dabryi, unique[1] représentant du genre Claea, est une espèce de poissons d'eau douce téléostéens de la famille des Nemacheilidae (ordre des Cypriniformes).
+Claea dabryi, unique représentant du genre Claea, est une espèce de poissons d'eau douce téléostéens de la famille des Nemacheilidae (ordre des Cypriniformes).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claea dabryi se rencontre dans le basin du Yangtsé en Chine[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claea dabryi se rencontre dans le basin du Yangtsé en Chine.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claea dabryi mesure jusqu'à 99 mm, queue non comprise[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claea dabryi mesure jusqu'à 99 mm, queue non comprise,.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Claea dabryi a été décrite pour la première fois en 1874 par Henri Émile Sauvage sous le protonyme Oreias dabryi[4],[5]. 
-En 2011, Kottelat rebaptise le genre en Claea[4],[6] dès lors que le genre Oreias est un homonyme à la fois du genre Oreias Kaup, 1829 mais également du genre Oreias Temminck in Temminck &amp; Laugier, 1838, deux genres d'oiseaux. 
-Claea dabryi a pour synonymes[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Claea dabryi a été décrite pour la première fois en 1874 par Henri Émile Sauvage sous le protonyme Oreias dabryi,. 
+En 2011, Kottelat rebaptise le genre en Claea, dès lors que le genre Oreias est un homonyme à la fois du genre Oreias Kaup, 1829 mais également du genre Oreias Temminck in Temminck &amp; Laugier, 1838, deux genres d'oiseaux. 
+Claea dabryi a pour synonymes :
 Anadoras dabryi (Sauvage, 1874)
 Barbatula dabryi (Sauvage, 1874)
 Oreias crassipedunculatus Bănărescu &amp; Nalbant, 1976
@@ -586,7 +604,7 @@
 Oreias furcatus Bănărescu &amp; Nalbant, 1976
 Schistura dabryi dabryi (Sauvage, 1874)
 Schistura dabryi (Sauvage, 1874)
-Deux espèces, auparavant classées dans le genre Claea, le sont aujourd'hui dans Schistura. Il s'agit de Schistura sonlaensis et Schistura trilineata[8].
+Deux espèces, auparavant classées dans le genre Claea, le sont aujourd'hui dans Schistura. Il s'agit de Schistura sonlaensis et Schistura trilineata.
 </t>
         </is>
       </c>
@@ -615,10 +633,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Claea, fait référence à la nymphe Claea et cela dans la mesure où Kottelat pense que le genre Oreias, choisi par Sauvage, faisait référence aux nymphes Oréades[9],[6].
-L'épithète spécifique, dabryi, pourrait avoir été donnée en l'honneur de Claude-Philibert Dabry de Thiersant (d) (1826–1898), un ichtyologiste français également consul en Chine qui a transmis plusieurs spécimens au Muséum national d’Histoire naturelle de Paris[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Claea, fait référence à la nymphe Claea et cela dans la mesure où Kottelat pense que le genre Oreias, choisi par Sauvage, faisait référence aux nymphes Oréades,.
+L'épithète spécifique, dabryi, pourrait avoir été donnée en l'honneur de Claude-Philibert Dabry de Thiersant (d) (1826–1898), un ichtyologiste français également consul en Chine qui a transmis plusieurs spécimens au Muséum national d’Histoire naturelle de Paris.
 </t>
         </is>
       </c>
@@ -647,7 +667,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Genre Claea :
 Maurice Kottelat, « Claea, a new replacement name for Oreias Sauvage, 1874 (Teleostei: Nemacheilidae) », Ichthyological Exploration of Freshwaters, vol. 21, no 4,‎ 1er décembre 2010, p. 384 (ISSN 0936-9902, lire en ligne)
